--- a/docs/StructureDefinition-CareConnect-Encounter-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-Encounter-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="555">
   <si>
     <t>Path</t>
   </si>
@@ -1543,6 +1543,9 @@
   </si>
   <si>
     <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -14587,7 +14590,7 @@
       </c>
       <c r="X118" s="2"/>
       <c r="Y118" t="s" s="2">
-        <v>42</v>
+        <v>492</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>42</v>
@@ -14620,18 +14623,18 @@
         <v>42</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14657,10 +14660,10 @@
         <v>147</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14690,10 +14693,10 @@
         <v>385</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>42</v>
@@ -14711,7 +14714,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14726,18 +14729,18 @@
         <v>42</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14763,10 +14766,10 @@
         <v>147</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14796,10 +14799,10 @@
         <v>385</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>42</v>
@@ -14817,7 +14820,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -14832,18 +14835,18 @@
         <v>42</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14869,10 +14872,10 @@
         <v>459</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14923,7 +14926,7 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -14938,18 +14941,18 @@
         <v>42</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14975,10 +14978,10 @@
         <v>147</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15008,10 +15011,10 @@
         <v>234</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15029,7 +15032,7 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15044,18 +15047,18 @@
         <v>42</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15081,13 +15084,13 @@
         <v>197</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15137,7 +15140,7 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15152,7 +15155,7 @@
         <v>201</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>42</v>
@@ -15163,7 +15166,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15269,7 +15272,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15377,7 +15380,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15485,7 +15488,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15511,10 +15514,10 @@
         <v>459</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15565,7 +15568,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>49</v>
@@ -15583,15 +15586,15 @@
         <v>357</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15617,13 +15620,13 @@
         <v>68</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15652,10 +15655,10 @@
         <v>141</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>42</v>
@@ -15673,7 +15676,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -15688,7 +15691,7 @@
         <v>42</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>42</v>
@@ -15699,7 +15702,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15725,10 +15728,10 @@
         <v>173</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15779,7 +15782,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -15805,7 +15808,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15831,10 +15834,10 @@
         <v>180</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15885,7 +15888,7 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -15900,18 +15903,18 @@
         <v>42</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15934,16 +15937,16 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15993,7 +15996,7 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -16008,7 +16011,7 @@
         <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>42</v>
